--- a/Instances/01_Normal.xlsx
+++ b/Instances/01_Normal.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCWam\DOCUME~1\MobaXterm\slash\RemoteFiles\132744_3_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Generic" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirement" sheetId="2" r:id="rId2"/>
+    <sheet name="Productdata" sheetId="3" r:id="rId3"/>
+    <sheet name="Capacity" sheetId="4" r:id="rId4"/>
+    <sheet name="ProcessingTime" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -98,23 +103,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -129,26 +135,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,25 +459,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,39 +481,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -502,34 +521,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -555,258 +568,252 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -832,604 +839,592 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>563</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E2">
         <v>66.72</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.26</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>214</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="E3">
         <v>22.57</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.248</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>2.48</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>673</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="E4" t="n">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="D4">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E4">
+        <v>69.290000000000006</v>
+      </c>
+      <c r="F4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>644</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E5" t="n">
-        <v>91.18000000000001</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>2E-3</v>
+      </c>
+      <c r="E5">
+        <v>91.18</v>
+      </c>
+      <c r="F5">
         <v>0.02</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>822</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E6">
         <v>99.78</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="F6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>335</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E7">
         <v>40.65</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.26</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>253</v>
       </c>
-      <c r="H7" t="n">
-        <v>36.62</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="I7">
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>53</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.0508</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="D8">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.61</v>
+      </c>
+      <c r="F8">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G8">
         <v>45</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>5.08</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>133</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="E9">
         <v>14.05</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.248</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>75</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>2.48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1072.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3009.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>752.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3762</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1821.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Instances/01_Normal.xlsx
+++ b/Instances/01_Normal.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>66.73</v>
+        <v>0.112351089841591</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>20.71</v>
+        <v>0.049181316366179</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>696</v>
+        <v>442</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>71.73</v>
+        <v>0.1617957426237306</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>488</v>
+        <v>435</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>97.34999999999999</v>
+        <v>0.145430224253049</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>790</v>
+        <v>507</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>72.45999999999999</v>
+        <v>0.138215794694174</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>402</v>
+        <v>296</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>59.72</v>
+        <v>0.08939784921196399</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>8.09</v>
+        <v>0.01452446019603346</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>17.32</v>
+        <v>0.02740272076639221</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>536.4</v>
+        <v>1609.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>864</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3009.6</v>
+        <v>1504.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752.4</v>
+        <v>2257.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1504.8</v>
+        <v>752.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1821.6</v>
+        <v>455.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>324</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>

--- a/Instances/01_Normal.xlsx
+++ b/Instances/01_Normal.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.112351089841591</v>
+        <v>0.9345473491267623</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.049181316366179</v>
+        <v>0.3155028072969463</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1617957426237306</v>
+        <v>0.2481985320273868</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.145430224253049</v>
+        <v>0.09847448716105148</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.138215794694174</v>
+        <v>0.2242639242838821</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08939784921196399</v>
+        <v>0.9818970476075275</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01452446019603346</v>
+        <v>0.2649184455605681</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02740272076639221</v>
+        <v>0.238571364204976</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1609.2</v>
+        <v>536.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>432</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1504.8</v>
+        <v>2257.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2257.2</v>
+        <v>1504.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>243</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Normal.xlsx
+++ b/Instances/01_Normal.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>356</v>
+        <v>243</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9345473491267623</v>
+        <v>0.8264056788862163</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3155028072969463</v>
+        <v>0.3763170333553454</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2481985320273868</v>
+        <v>0.2725614075553779</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09847448716105148</v>
+        <v>0.1071860811503877</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2242639242838821</v>
+        <v>0.1521814013182523</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9818970476075275</v>
+        <v>0.8245156135865116</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2649184455605681</v>
+        <v>0.2445231566793847</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.238571364204976</v>
+        <v>0.2276375773994032</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>536.4</v>
+        <v>1609.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2257.2</v>
+        <v>1504.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752.4</v>
+        <v>3009.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>405</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>270</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Normal.xlsx
+++ b/Instances/01_Normal.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8264056788862163</v>
+        <v>6.736568559612465</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3763170333553454</v>
+        <v>2.458308729278388</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2725614075553779</v>
+        <v>1.965028573910305</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1071860811503877</v>
+        <v>0.9656694001074043</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>368</v>
+        <v>452</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1521814013182523</v>
+        <v>1.370258672742965</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8245156135865116</v>
+        <v>5.774313653901411</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2445231566793847</v>
+        <v>1.993109086003273</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2276375773994032</v>
+        <v>1.989546119628969</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1609.2</v>
+        <v>536.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1504.8</v>
+        <v>3009.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3009.6</v>
+        <v>2257.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>455.4</v>
+        <v>1366.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>162</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Normal.xlsx
+++ b/Instances/01_Normal.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>6.736568559612465</v>
+        <v>6.464456510299756</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>2.458308729278388</v>
+        <v>2.767909462946232</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>1.965028573910305</v>
+        <v>2.394965531927337</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9656694001074043</v>
+        <v>0.7582144658851633</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>1.370258672742965</v>
+        <v>1.478052592157436</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>5.774313653901411</v>
+        <v>5.843975456130579</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>1.993109086003273</v>
+        <v>2.480060805868885</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>1.989546119628969</v>
+        <v>1.508699782718646</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>536.4</v>
+        <v>1072.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>648</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1504.8</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2257.2</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1366.2</v>
+        <v>1821.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>324</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>

--- a/Instances/01_Normal.xlsx
+++ b/Instances/01_Normal.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>6.464456510299756</v>
+        <v>15.496</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>2.767909462946232</v>
+        <v>5.952000000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>2.394965531927337</v>
+        <v>4.0128</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7582144658851633</v>
+        <v>1.672</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>1.478052592157436</v>
+        <v>3.0096</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>290</v>
+        <v>899</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>5.843975456130579</v>
+        <v>13.156</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>2.480060805868885</v>
+        <v>4.572</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>1.508699782718646</v>
+        <v>3.72</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1072.8</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3762</v>
+        <v>12540</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3009.6</v>
+        <v>12540</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3762</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1821.6</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>405</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Normal.xlsx
+++ b/Instances/01_Normal.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>15.496</v>
+        <v>7.748000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>5.952000000000001</v>
+        <v>2.976</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -906,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0128</v>
+        <v>2.0064</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -935,7 +935,7 @@
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>1.672</v>
+        <v>0.836</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -964,7 +964,7 @@
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0096</v>
+        <v>1.5048</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>899</v>
+        <v>786</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>13.156</v>
+        <v>6.578</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>4.572</v>
+        <v>2.286</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>3.72</v>
+        <v>1.86</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8940</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12540</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12540</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4180</v>
+        <v>16720</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10120</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
